--- a/FlowCharts/Function_Create_Vm.xlsx
+++ b/FlowCharts/Function_Create_Vm.xlsx
@@ -2802,22 +2802,22 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>60239</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>87762</xdr:rowOff>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="182" name="Straight Arrow Connector 181"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="6"/>
-          <a:endCxn id="22" idx="1"/>
+          <a:endCxn id="114" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14158983" y="6537747"/>
-          <a:ext cx="531656" cy="2313015"/>
+          <a:ext cx="809555" cy="1091778"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2850,12 +2850,12 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>186875</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>35269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>60239</xdr:colOff>
+      <xdr:colOff>15426</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>5756</xdr:rowOff>
     </xdr:to>
@@ -2864,13 +2864,13 @@
         <xdr:cNvPr id="185" name="Straight Arrow Connector 184"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="37" idx="6"/>
-          <a:endCxn id="22" idx="3"/>
+          <a:endCxn id="121" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12503150" y="9140375"/>
-          <a:ext cx="2187489" cy="6105381"/>
+          <a:off x="12503150" y="10703269"/>
+          <a:ext cx="2142676" cy="4542487"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2903,12 +2903,12 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>599280</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>186875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>602142</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
@@ -2917,13 +2917,13 @@
         <xdr:cNvPr id="189" name="Straight Arrow Connector 188"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="6"/>
-          <a:endCxn id="22" idx="5"/>
+          <a:endCxn id="130" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14620080" y="9140375"/>
-          <a:ext cx="612462" cy="6961638"/>
+          <a:off x="14620080" y="15068551"/>
+          <a:ext cx="672308" cy="1033462"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5167,6 +5167,340 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Oval 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14525625" y="7629525"/>
+          <a:ext cx="885825" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>331192</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>27781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Straight Arrow Connector 181"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="4"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14589225" y="8411467"/>
+          <a:ext cx="751681" cy="6947"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>56356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>331192</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Straight Arrow Connector 181"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="0"/>
+          <a:endCxn id="22" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="14383643" y="9775727"/>
+          <a:ext cx="1153319" cy="2578"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Oval 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14516100" y="10353675"/>
+          <a:ext cx="885825" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Return</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Oval 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859001" y="14639925"/>
+          <a:ext cx="866774" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Mail Admins</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>32199</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>35269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Arrow Connector 135"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="130" idx="0"/>
+          <a:endCxn id="121" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="13313966" y="12661502"/>
+          <a:ext cx="3936656" cy="20189"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5459,8 +5793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51"/>
+    <sheetView tabSelected="1" topLeftCell="J65" workbookViewId="0">
+      <selection activeCell="AB77" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
